--- a/Documentos/Datos.xlsx
+++ b/Documentos/Datos.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7896"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rastros(TIF)" sheetId="1" r:id="rId1"/>
-    <sheet name="Rastros (Rastro)" sheetId="5" r:id="rId2"/>
+    <sheet name="Rastros(Rastro)" sheetId="5" r:id="rId2"/>
     <sheet name="Grupo de mercancía" sheetId="2" r:id="rId3"/>
     <sheet name="Sitio de inspección" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -5608,18 +5608,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5627,6 +5615,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5936,7 +5936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5970,128 +5970,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29" t="s">
         <v>1117</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="31" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="27" t="s">
         <v>967</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="27" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27" t="s">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="25" t="s">
@@ -6100,10 +6100,10 @@
       <c r="B3" s="25" t="s">
         <v>1769</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
@@ -6125,8 +6125,8 @@
       <c r="M3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="18" t="s">
         <v>19</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="T3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="33"/>
+      <c r="U3" s="29"/>
       <c r="V3" s="3" t="s">
         <v>24</v>
       </c>
@@ -16830,6 +16830,16 @@
     <filterColumn colId="38" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:T2"/>
     <mergeCell ref="AJ1:AN2"/>
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="V1:AI1"/>
@@ -16840,16 +16850,6 @@
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:T2"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>
@@ -16963,8 +16963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -16990,134 +16990,134 @@
     <col min="21" max="21" width="15.5546875" style="5" customWidth="1"/>
     <col min="22" max="35" width="12.77734375" style="5" customWidth="1"/>
     <col min="36" max="37" width="8.88671875" style="5"/>
-    <col min="38" max="38" width="13.77734375" style="5" customWidth="1"/>
+    <col min="38" max="38" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="17.6640625" style="5" customWidth="1"/>
     <col min="41" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29" t="s">
         <v>1117</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="31" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="27" t="s">
         <v>967</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="27" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27" t="s">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
       <c r="A3" s="25" t="s">
@@ -17126,10 +17126,10 @@
       <c r="B3" s="25" t="s">
         <v>1769</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="20" t="s">
         <v>12</v>
       </c>
@@ -17151,8 +17151,8 @@
       <c r="M3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="21" t="s">
         <v>19</v>
       </c>
@@ -17168,7 +17168,7 @@
       <c r="T3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="33"/>
+      <c r="U3" s="29"/>
       <c r="V3" s="19" t="s">
         <v>24</v>
       </c>
@@ -27827,17 +27827,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:T2"/>
-    <mergeCell ref="U1:U3"/>
     <mergeCell ref="AJ1:AN2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -27847,6 +27836,17 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="V1:AI1"/>
+    <mergeCell ref="G1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:T2"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>
@@ -27978,10 +27978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -28001,8 +28001,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>564</v>
       </c>
@@ -30347,65 +30347,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="27" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="10" t="s">
         <v>48</v>
       </c>
@@ -30448,13 +30448,13 @@
       <c r="S2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="25" t="s">
@@ -36854,11 +36854,6 @@
   </sheetData>
   <autoFilter ref="A2:Z102"/>
   <mergeCells count="13">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -36867,6 +36862,11 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:S1"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentos/Datos.xlsx
+++ b/Documentos/Datos.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7896" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rastros(TIF)" sheetId="1" r:id="rId1"/>
     <sheet name="Rastros(Rastro)" sheetId="5" r:id="rId2"/>
-    <sheet name="Grupo de mercancía" sheetId="2" r:id="rId3"/>
+    <sheet name="Grupo_mercancia" sheetId="2" r:id="rId3"/>
     <sheet name="Sitio de inspección" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Grupo de mercancía'!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Grupo_mercancia!$A$1:$G$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rastros(TIF)'!$A$1:$AN$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sitio de inspección'!$A$2:$Z$102</definedName>
   </definedNames>
@@ -5608,6 +5608,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5615,18 +5627,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5970,128 +5970,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33" t="s">
         <v>1117</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="31" t="s">
         <v>967</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30" t="s">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="25" t="s">
@@ -6100,10 +6100,10 @@
       <c r="B3" s="25" t="s">
         <v>1769</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
@@ -6125,8 +6125,8 @@
       <c r="M3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="18" t="s">
         <v>19</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="T3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="29"/>
+      <c r="U3" s="33"/>
       <c r="V3" s="3" t="s">
         <v>24</v>
       </c>
@@ -16830,16 +16830,6 @@
     <filterColumn colId="38" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:T2"/>
     <mergeCell ref="AJ1:AN2"/>
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="V1:AI1"/>
@@ -16850,6 +16840,16 @@
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:T2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>
@@ -16963,7 +16963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
@@ -16996,128 +16996,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33" t="s">
         <v>1117</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="31" t="s">
         <v>967</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30" t="s">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
       <c r="A3" s="25" t="s">
@@ -17126,10 +17126,10 @@
       <c r="B3" s="25" t="s">
         <v>1769</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="20" t="s">
         <v>12</v>
       </c>
@@ -17151,8 +17151,8 @@
       <c r="M3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="21" t="s">
         <v>19</v>
       </c>
@@ -17168,7 +17168,7 @@
       <c r="T3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="29"/>
+      <c r="U3" s="33"/>
       <c r="V3" s="19" t="s">
         <v>24</v>
       </c>
@@ -27827,6 +27827,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:T2"/>
+    <mergeCell ref="U1:U3"/>
     <mergeCell ref="AJ1:AN2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -27836,17 +27847,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="V1:AI1"/>
-    <mergeCell ref="G1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:T2"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>
@@ -27959,8 +27959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -27978,10 +27978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -28001,8 +28001,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>564</v>
       </c>
@@ -30347,65 +30347,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="30" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="10" t="s">
         <v>48</v>
       </c>
@@ -30448,13 +30448,13 @@
       <c r="S2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="25" t="s">
@@ -36854,6 +36854,11 @@
   </sheetData>
   <autoFilter ref="A2:Z102"/>
   <mergeCells count="13">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -36862,11 +36867,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:S1"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentos/Datos.xlsx
+++ b/Documentos/Datos.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7896" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7896" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rastros(TIF)" sheetId="1" r:id="rId1"/>
     <sheet name="Rastros(Rastro)" sheetId="5" r:id="rId2"/>
     <sheet name="Grupo_mercancia" sheetId="2" r:id="rId3"/>
-    <sheet name="Sitio de inspección" sheetId="3" r:id="rId4"/>
+    <sheet name="Sitio_inspeccion" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Grupo_mercancia!$A$1:$G$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rastros(TIF)'!$A$1:$AN$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sitio de inspección'!$A$2:$Z$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sitio_inspeccion!$A$2:$Z$102</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -5608,18 +5608,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5627,6 +5615,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5970,128 +5970,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29" t="s">
         <v>1117</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="31" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="27" t="s">
         <v>967</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="27" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27" t="s">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="25" t="s">
@@ -6100,10 +6100,10 @@
       <c r="B3" s="25" t="s">
         <v>1769</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
@@ -6125,8 +6125,8 @@
       <c r="M3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="18" t="s">
         <v>19</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="T3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="33"/>
+      <c r="U3" s="29"/>
       <c r="V3" s="3" t="s">
         <v>24</v>
       </c>
@@ -16830,6 +16830,16 @@
     <filterColumn colId="38" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:T2"/>
     <mergeCell ref="AJ1:AN2"/>
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="V1:AI1"/>
@@ -16840,16 +16850,6 @@
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:T2"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>
@@ -16996,128 +16996,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29" t="s">
         <v>1117</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="31" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="27" t="s">
         <v>967</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="27" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27" t="s">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
     </row>
     <row r="3" spans="1:40" s="1" customFormat="1" ht="23.4" customHeight="1">
       <c r="A3" s="25" t="s">
@@ -17126,10 +17126,10 @@
       <c r="B3" s="25" t="s">
         <v>1769</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="20" t="s">
         <v>12</v>
       </c>
@@ -17151,8 +17151,8 @@
       <c r="M3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="21" t="s">
         <v>19</v>
       </c>
@@ -17168,7 +17168,7 @@
       <c r="T3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="33"/>
+      <c r="U3" s="29"/>
       <c r="V3" s="19" t="s">
         <v>24</v>
       </c>
@@ -27827,17 +27827,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:T2"/>
-    <mergeCell ref="U1:U3"/>
     <mergeCell ref="AJ1:AN2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -27847,6 +27836,17 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="V1:AI1"/>
+    <mergeCell ref="G1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:T2"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1"/>
@@ -27959,7 +27959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -27978,10 +27978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -28001,8 +28001,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>564</v>
       </c>
@@ -30318,7 +30318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -30347,65 +30347,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="27" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="10" t="s">
         <v>48</v>
       </c>
@@ -30448,13 +30448,13 @@
       <c r="S2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="25" t="s">
@@ -36854,11 +36854,6 @@
   </sheetData>
   <autoFilter ref="A2:Z102"/>
   <mergeCells count="13">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -36867,6 +36862,11 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:S1"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentos/Datos.xlsx
+++ b/Documentos/Datos.xlsx
@@ -30316,10 +30316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -30470,7 +30470,7 @@
         <v>264</v>
       </c>
       <c r="E3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>464</v>
@@ -30534,7 +30534,7 @@
         <v>265</v>
       </c>
       <c r="E4" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>465</v>
@@ -30598,7 +30598,7 @@
         <v>266</v>
       </c>
       <c r="E5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>466</v>
@@ -30662,7 +30662,7 @@
         <v>267</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>467</v>
@@ -30725,7 +30725,7 @@
         <v>268</v>
       </c>
       <c r="E7" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>468</v>
@@ -30789,7 +30789,7 @@
         <v>269</v>
       </c>
       <c r="E8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>469</v>
@@ -30853,7 +30853,7 @@
         <v>270</v>
       </c>
       <c r="E9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>470</v>
@@ -30917,7 +30917,7 @@
         <v>271</v>
       </c>
       <c r="E10" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>471</v>
@@ -30981,7 +30981,7 @@
         <v>272</v>
       </c>
       <c r="E11" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>472</v>
@@ -31045,7 +31045,7 @@
         <v>273</v>
       </c>
       <c r="E12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>473</v>
@@ -31109,7 +31109,7 @@
         <v>274</v>
       </c>
       <c r="E13" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>474</v>
@@ -31173,7 +31173,7 @@
         <v>275</v>
       </c>
       <c r="E14" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>475</v>
@@ -31237,7 +31237,7 @@
         <v>276</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>476</v>
@@ -31301,7 +31301,7 @@
         <v>277</v>
       </c>
       <c r="E16" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>477</v>
@@ -31365,7 +31365,7 @@
         <v>278</v>
       </c>
       <c r="E17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>478</v>
@@ -31429,7 +31429,7 @@
         <v>279</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>479</v>
@@ -31491,7 +31491,7 @@
         <v>280</v>
       </c>
       <c r="E19" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>480</v>
@@ -31555,7 +31555,7 @@
         <v>281</v>
       </c>
       <c r="E20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>481</v>
@@ -31619,7 +31619,7 @@
         <v>282</v>
       </c>
       <c r="E21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>482</v>
@@ -31683,7 +31683,7 @@
         <v>283</v>
       </c>
       <c r="E22" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>483</v>
@@ -31745,7 +31745,7 @@
         <v>284</v>
       </c>
       <c r="E23" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>484</v>
@@ -31809,7 +31809,7 @@
         <v>285</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>485</v>
@@ -31873,7 +31873,7 @@
         <v>286</v>
       </c>
       <c r="E25" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>486</v>
@@ -31937,7 +31937,7 @@
         <v>287</v>
       </c>
       <c r="E26" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>487</v>
@@ -32001,7 +32001,7 @@
         <v>288</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>488</v>
@@ -32065,7 +32065,7 @@
         <v>289</v>
       </c>
       <c r="E28" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>489</v>
@@ -32129,7 +32129,7 @@
         <v>290</v>
       </c>
       <c r="E29" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>490</v>
@@ -32193,7 +32193,7 @@
         <v>291</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>491</v>
@@ -32257,7 +32257,7 @@
         <v>292</v>
       </c>
       <c r="E31" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>492</v>
@@ -32321,7 +32321,7 @@
         <v>293</v>
       </c>
       <c r="E32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>493</v>
@@ -32385,7 +32385,7 @@
         <v>294</v>
       </c>
       <c r="E33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>494</v>
@@ -32449,7 +32449,7 @@
         <v>295</v>
       </c>
       <c r="E34" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>495</v>
@@ -32513,7 +32513,7 @@
         <v>296</v>
       </c>
       <c r="E35" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>496</v>
@@ -32577,7 +32577,7 @@
         <v>297</v>
       </c>
       <c r="E36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>497</v>
@@ -32641,7 +32641,7 @@
         <v>298</v>
       </c>
       <c r="E37" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>498</v>
@@ -32705,7 +32705,7 @@
         <v>299</v>
       </c>
       <c r="E38" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>499</v>
@@ -32769,7 +32769,7 @@
         <v>300</v>
       </c>
       <c r="E39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>500</v>
@@ -32833,7 +32833,7 @@
         <v>301</v>
       </c>
       <c r="E40" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>501</v>
@@ -32897,7 +32897,7 @@
         <v>302</v>
       </c>
       <c r="E41" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>502</v>
@@ -32961,7 +32961,7 @@
         <v>303</v>
       </c>
       <c r="E42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>503</v>
@@ -33025,7 +33025,7 @@
         <v>304</v>
       </c>
       <c r="E43" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>504</v>
@@ -33089,7 +33089,7 @@
         <v>305</v>
       </c>
       <c r="E44" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>505</v>
@@ -33153,7 +33153,7 @@
         <v>306</v>
       </c>
       <c r="E45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>506</v>
@@ -33217,7 +33217,7 @@
         <v>307</v>
       </c>
       <c r="E46" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>507</v>
@@ -33281,7 +33281,7 @@
         <v>308</v>
       </c>
       <c r="E47" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>508</v>
@@ -33345,7 +33345,7 @@
         <v>309</v>
       </c>
       <c r="E48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>509</v>
@@ -33409,7 +33409,7 @@
         <v>310</v>
       </c>
       <c r="E49" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>510</v>
@@ -33473,7 +33473,7 @@
         <v>311</v>
       </c>
       <c r="E50" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>511</v>
@@ -33537,7 +33537,7 @@
         <v>312</v>
       </c>
       <c r="E51" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>512</v>
@@ -33601,7 +33601,7 @@
         <v>313</v>
       </c>
       <c r="E52" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>513</v>
@@ -33665,7 +33665,7 @@
         <v>314</v>
       </c>
       <c r="E53" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>514</v>
@@ -33729,7 +33729,7 @@
         <v>315</v>
       </c>
       <c r="E54" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>515</v>
@@ -33793,7 +33793,7 @@
         <v>316</v>
       </c>
       <c r="E55" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>516</v>
@@ -33857,7 +33857,7 @@
         <v>317</v>
       </c>
       <c r="E56" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>517</v>
@@ -33921,7 +33921,7 @@
         <v>318</v>
       </c>
       <c r="E57" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>518</v>
@@ -33985,7 +33985,7 @@
         <v>319</v>
       </c>
       <c r="E58" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>519</v>
@@ -34049,7 +34049,7 @@
         <v>320</v>
       </c>
       <c r="E59" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>520</v>
@@ -34113,7 +34113,7 @@
         <v>321</v>
       </c>
       <c r="E60" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>521</v>
@@ -34177,7 +34177,7 @@
         <v>322</v>
       </c>
       <c r="E61" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>522</v>
@@ -34241,7 +34241,7 @@
         <v>323</v>
       </c>
       <c r="E62" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>523</v>
@@ -34305,7 +34305,7 @@
         <v>324</v>
       </c>
       <c r="E63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>524</v>
@@ -34369,7 +34369,7 @@
         <v>325</v>
       </c>
       <c r="E64" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>525</v>
@@ -34433,7 +34433,7 @@
         <v>326</v>
       </c>
       <c r="E65" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>526</v>
@@ -34497,7 +34497,7 @@
         <v>327</v>
       </c>
       <c r="E66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>527</v>
@@ -34561,7 +34561,7 @@
         <v>328</v>
       </c>
       <c r="E67" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>528</v>
@@ -34625,7 +34625,7 @@
         <v>329</v>
       </c>
       <c r="E68" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>529</v>
@@ -34689,7 +34689,7 @@
         <v>330</v>
       </c>
       <c r="E69" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>530</v>
@@ -34753,7 +34753,7 @@
         <v>331</v>
       </c>
       <c r="E70" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>531</v>
@@ -34817,7 +34817,7 @@
         <v>332</v>
       </c>
       <c r="E71" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>532</v>
@@ -34881,7 +34881,7 @@
         <v>333</v>
       </c>
       <c r="E72" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>533</v>
@@ -34945,7 +34945,7 @@
         <v>334</v>
       </c>
       <c r="E73" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>534</v>
@@ -35009,7 +35009,7 @@
         <v>335</v>
       </c>
       <c r="E74" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>535</v>
@@ -35073,7 +35073,7 @@
         <v>336</v>
       </c>
       <c r="E75" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>536</v>
@@ -35137,7 +35137,7 @@
         <v>337</v>
       </c>
       <c r="E76" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>537</v>
@@ -35201,7 +35201,7 @@
         <v>338</v>
       </c>
       <c r="E77" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>538</v>
@@ -35265,7 +35265,7 @@
         <v>339</v>
       </c>
       <c r="E78" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>539</v>
@@ -35329,7 +35329,7 @@
         <v>340</v>
       </c>
       <c r="E79" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>540</v>
@@ -35393,7 +35393,7 @@
         <v>341</v>
       </c>
       <c r="E80" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>541</v>
@@ -35457,7 +35457,7 @@
         <v>342</v>
       </c>
       <c r="E81" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>542</v>
@@ -35521,7 +35521,7 @@
         <v>343</v>
       </c>
       <c r="E82" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>543</v>
@@ -35585,7 +35585,7 @@
         <v>344</v>
       </c>
       <c r="E83" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>544</v>
@@ -35649,7 +35649,7 @@
         <v>345</v>
       </c>
       <c r="E84" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>545</v>
@@ -35713,7 +35713,7 @@
         <v>346</v>
       </c>
       <c r="E85" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>546</v>
@@ -35777,7 +35777,7 @@
         <v>347</v>
       </c>
       <c r="E86" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>547</v>
@@ -35841,7 +35841,7 @@
         <v>348</v>
       </c>
       <c r="E87" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>548</v>
@@ -35905,7 +35905,7 @@
         <v>349</v>
       </c>
       <c r="E88" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>549</v>
@@ -35969,7 +35969,7 @@
         <v>350</v>
       </c>
       <c r="E89" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>550</v>
@@ -36033,7 +36033,7 @@
         <v>351</v>
       </c>
       <c r="E90" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>551</v>
@@ -36097,7 +36097,7 @@
         <v>352</v>
       </c>
       <c r="E91" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>552</v>
@@ -36161,7 +36161,7 @@
         <v>353</v>
       </c>
       <c r="E92" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>553</v>
@@ -36225,7 +36225,7 @@
         <v>354</v>
       </c>
       <c r="E93" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>554</v>
@@ -36289,7 +36289,7 @@
         <v>355</v>
       </c>
       <c r="E94" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>555</v>
@@ -36353,7 +36353,7 @@
         <v>356</v>
       </c>
       <c r="E95" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>556</v>
@@ -36417,7 +36417,7 @@
         <v>357</v>
       </c>
       <c r="E96" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>557</v>
@@ -36481,7 +36481,7 @@
         <v>358</v>
       </c>
       <c r="E97" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>558</v>
@@ -36545,7 +36545,7 @@
         <v>359</v>
       </c>
       <c r="E98" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>559</v>
@@ -36609,7 +36609,7 @@
         <v>360</v>
       </c>
       <c r="E99" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>560</v>
@@ -36673,7 +36673,7 @@
         <v>361</v>
       </c>
       <c r="E100" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>561</v>
@@ -36737,7 +36737,7 @@
         <v>362</v>
       </c>
       <c r="E101" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>562</v>
@@ -36801,7 +36801,7 @@
         <v>363</v>
       </c>
       <c r="E102" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>563</v>
@@ -36850,6 +36850,34 @@
       <c r="Z102" s="6" t="s">
         <v>161</v>
       </c>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="12"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="12"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="12"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="12"/>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="12"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="12"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:Z102"/>
